--- a/Figure_6_Revision/Data/GO for clusters/cluster3_gProfiler_athaliana_11-12-2023_8-04-39 PM__intersections.xlsx
+++ b/Figure_6_Revision/Data/GO for clusters/cluster3_gProfiler_athaliana_11-12-2023_8-04-39 PM__intersections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenhh/Documents/GitHub/ETI_Project/Figure_6_Revision/Data/GO for clusters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D01C48F-ED37-B143-A841-7F51976E26DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2877BEAD-C501-BA4E-B09F-A5C552976694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cluster3_gProfiler_athaliana_11" sheetId="1" r:id="rId1"/>
@@ -2607,10 +2607,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -11559,7 +11561,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11672,38 +11674,38 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="b">
+      <c r="D4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>2.48092569065421E-8</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>7.6053862436367501</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>1635</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>495</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>77</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>23212</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -11777,38 +11779,38 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D7" t="b">
+      <c r="D7" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>4.2287902852085601E-4</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>3.3737838519150598</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>1315</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>495</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>53</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <v>23212</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -12407,38 +12409,38 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D25" t="b">
+      <c r="D25" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="4">
         <v>3.3794621967016797E-2</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="4">
         <v>1.4711524072928801</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="4">
         <v>60</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="4">
         <v>495</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="4">
         <v>6</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="4">
         <v>23212</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="4" t="s">
         <v>97</v>
       </c>
     </row>
@@ -12547,38 +12549,38 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D29" t="b">
+      <c r="D29" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>2.38146882996726E-2</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="2">
         <v>1.6231550984109699</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="2">
         <v>22</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="2">
         <v>495</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="2">
         <v>4</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="2">
         <v>23212</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="2" t="s">
         <v>89</v>
       </c>
     </row>
@@ -12804,8 +12806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="B190" sqref="B190"/>
+    <sheetView topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="B171" sqref="B171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12852,7 +12854,7 @@
       <c r="A2" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>553</v>
       </c>
       <c r="C2" t="s">
@@ -14777,7 +14779,7 @@
       <c r="A57" t="s">
         <v>103</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="4" t="s">
         <v>225</v>
       </c>
       <c r="C57" t="s">
@@ -16002,7 +16004,7 @@
       <c r="A92" t="s">
         <v>103</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C92" t="s">
@@ -18627,7 +18629,7 @@
       <c r="A167" t="s">
         <v>103</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B167" s="4" t="s">
         <v>571</v>
       </c>
       <c r="C167" t="s">
@@ -18662,7 +18664,7 @@
       <c r="A168" t="s">
         <v>103</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="4" t="s">
         <v>615</v>
       </c>
       <c r="C168" t="s">
@@ -18697,7 +18699,7 @@
       <c r="A169" t="s">
         <v>103</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" s="4" t="s">
         <v>650</v>
       </c>
       <c r="C169" t="s">
@@ -18872,7 +18874,7 @@
       <c r="A174" t="s">
         <v>103</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" s="4" t="s">
         <v>397</v>
       </c>
       <c r="C174" t="s">
@@ -19432,7 +19434,7 @@
       <c r="A190" t="s">
         <v>103</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" s="4" t="s">
         <v>564</v>
       </c>
       <c r="C190" t="s">
@@ -19721,10 +19723,13 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="41.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -19905,7 +19910,7 @@
       <c r="A6" t="s">
         <v>655</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>656</v>
       </c>
       <c r="C6" t="s">
@@ -20018,7 +20023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
